--- a/sys_HORROR.xlsx
+++ b/sys_HORROR.xlsx
@@ -79,7 +79,7 @@
     <t>Horror</t>
   </si>
   <si>
-    <t>map</t>
+    <t>mapp</t>
   </si>
 </sst>
 </file>

--- a/sys_HORROR.xlsx
+++ b/sys_HORROR.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>makima</t>

--- a/sys_HORROR.xlsx
+++ b/sys_HORROR.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>makima</t>
@@ -79,7 +79,7 @@
     <t>Horror</t>
   </si>
   <si>
-    <t>mapp</t>
+    <t>map</t>
   </si>
 </sst>
 </file>

--- a/sys_HORROR.xlsx
+++ b/sys_HORROR.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>makima</t>
@@ -79,7 +79,7 @@
     <t>Horror</t>
   </si>
   <si>
-    <t>map</t>
+    <t>mapp</t>
   </si>
 </sst>
 </file>

--- a/sys_HORROR.xlsx
+++ b/sys_HORROR.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>User ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>System1</t>
-  </si>
-  <si>
     <t>role code</t>
   </si>
   <si>
@@ -50,33 +44,6 @@
   </si>
   <si>
     <t>kishibe</t>
-  </si>
-  <si>
-    <t>Makima</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Denji</t>
-  </si>
-  <si>
-    <t>Hayakawa Aki</t>
-  </si>
-  <si>
-    <t>Reze</t>
-  </si>
-  <si>
-    <t>Pochita</t>
-  </si>
-  <si>
-    <t>Himeno</t>
-  </si>
-  <si>
-    <t>Kishibe</t>
-  </si>
-  <si>
-    <t>Horror</t>
   </si>
   <si>
     <t>mapp</t>
@@ -437,136 +404,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
